--- a/resources/psst_output.xlsx
+++ b/resources/psst_output.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7210" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="obj" sheetId="1" r:id="rId1"/>
-    <sheet name="Power" sheetId="3" r:id="rId2"/>
+    <sheet name="P" sheetId="3" r:id="rId2"/>
     <sheet name="LMP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Power!$A$1:$D$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">P!$A$1:$D$121</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="32">
   <si>
     <t>仅一个目标函数计算结果</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>G1</t>
+  </si>
+  <si>
+    <t>number是发电机名，value是对应时段的出力，status是启停机状态</t>
   </si>
   <si>
     <t>G2</t>
@@ -120,8 +123,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
@@ -134,7 +137,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -156,6 +174,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -165,30 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,29 +258,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -239,31 +265,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -284,37 +287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,61 +305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,25 +323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +341,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,31 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,39 +506,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -546,6 +516,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,13 +546,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,16 +578,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,137 +605,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -740,6 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1067,8 +1071,8 @@
   <sheetPr/>
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1240,15 +1244,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="12.6666666666667"/>
+    <col min="5" max="5" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1265,7 +1269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1278,10 +1282,13 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1295,7 +1302,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1309,7 +1316,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1323,7 +1330,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1351,7 +1358,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -1365,7 +1372,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -1379,7 +1386,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -1393,7 +1400,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -1421,7 +1428,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -1435,7 +1442,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -1449,7 +1456,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -1463,7 +1470,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -1491,7 +1498,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -1505,7 +1512,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
@@ -1519,7 +1526,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
@@ -1533,7 +1540,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
         <v>4</v>
@@ -1561,7 +1568,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
@@ -1575,7 +1582,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -1589,7 +1596,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1">
         <v>5</v>
@@ -1603,7 +1610,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1">
         <v>5</v>
@@ -1631,7 +1638,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1">
         <v>6</v>
@@ -1645,7 +1652,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1">
         <v>6</v>
@@ -1659,7 +1666,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1">
         <v>6</v>
@@ -1673,7 +1680,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1">
         <v>6</v>
@@ -1701,7 +1708,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
         <v>7</v>
@@ -1715,7 +1722,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1">
         <v>7</v>
@@ -1729,7 +1736,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -1743,7 +1750,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1">
         <v>7</v>
@@ -1771,7 +1778,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1">
         <v>8</v>
@@ -1785,7 +1792,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1">
         <v>8</v>
@@ -1799,7 +1806,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1">
         <v>8</v>
@@ -1813,7 +1820,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1">
         <v>8</v>
@@ -1841,7 +1848,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
@@ -1855,7 +1862,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
@@ -1869,7 +1876,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1">
         <v>9</v>
@@ -1883,7 +1890,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" s="1">
         <v>9</v>
@@ -1911,7 +1918,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1">
         <v>10</v>
@@ -1925,7 +1932,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1">
         <v>10</v>
@@ -1939,7 +1946,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1">
         <v>10</v>
@@ -1953,7 +1960,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" s="1">
         <v>10</v>
@@ -1981,7 +1988,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B53" s="1">
         <v>11</v>
@@ -1995,7 +2002,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1">
         <v>11</v>
@@ -2009,7 +2016,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1">
         <v>11</v>
@@ -2023,7 +2030,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56" s="1">
         <v>11</v>
@@ -2051,7 +2058,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" s="1">
         <v>12</v>
@@ -2065,7 +2072,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" s="1">
         <v>12</v>
@@ -2079,7 +2086,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60" s="1">
         <v>12</v>
@@ -2093,7 +2100,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B61" s="1">
         <v>12</v>
@@ -2121,7 +2128,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1">
         <v>13</v>
@@ -2135,7 +2142,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" s="1">
         <v>13</v>
@@ -2149,7 +2156,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65" s="1">
         <v>13</v>
@@ -2163,7 +2170,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B66" s="1">
         <v>13</v>
@@ -2191,7 +2198,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1">
         <v>14</v>
@@ -2205,7 +2212,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B69" s="1">
         <v>14</v>
@@ -2219,7 +2226,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B70" s="1">
         <v>14</v>
@@ -2233,7 +2240,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71" s="1">
         <v>14</v>
@@ -2261,7 +2268,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B73" s="1">
         <v>15</v>
@@ -2275,7 +2282,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74" s="1">
         <v>15</v>
@@ -2289,7 +2296,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B75" s="1">
         <v>15</v>
@@ -2303,7 +2310,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B76" s="1">
         <v>15</v>
@@ -2331,7 +2338,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B78" s="1">
         <v>16</v>
@@ -2345,7 +2352,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B79" s="1">
         <v>16</v>
@@ -2359,7 +2366,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80" s="1">
         <v>16</v>
@@ -2373,7 +2380,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81" s="1">
         <v>16</v>
@@ -2401,7 +2408,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B83" s="1">
         <v>17</v>
@@ -2415,7 +2422,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B84" s="1">
         <v>17</v>
@@ -2429,7 +2436,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85" s="1">
         <v>17</v>
@@ -2443,7 +2450,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B86" s="1">
         <v>17</v>
@@ -2471,7 +2478,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B88" s="1">
         <v>18</v>
@@ -2485,7 +2492,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B89" s="1">
         <v>18</v>
@@ -2499,7 +2506,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B90" s="1">
         <v>18</v>
@@ -2513,7 +2520,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B91" s="1">
         <v>18</v>
@@ -2541,7 +2548,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B93" s="1">
         <v>19</v>
@@ -2555,7 +2562,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B94" s="1">
         <v>19</v>
@@ -2569,7 +2576,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B95" s="1">
         <v>19</v>
@@ -2583,7 +2590,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B96" s="1">
         <v>19</v>
@@ -2611,7 +2618,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B98" s="1">
         <v>20</v>
@@ -2625,7 +2632,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B99" s="1">
         <v>20</v>
@@ -2639,7 +2646,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B100" s="1">
         <v>20</v>
@@ -2653,7 +2660,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B101" s="1">
         <v>20</v>
@@ -2681,7 +2688,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B103" s="1">
         <v>21</v>
@@ -2695,7 +2702,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B104" s="1">
         <v>21</v>
@@ -2709,7 +2716,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B105" s="1">
         <v>21</v>
@@ -2723,7 +2730,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B106" s="1">
         <v>21</v>
@@ -2751,7 +2758,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B108" s="1">
         <v>22</v>
@@ -2765,7 +2772,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B109" s="1">
         <v>22</v>
@@ -2779,7 +2786,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B110" s="1">
         <v>22</v>
@@ -2793,7 +2800,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B111" s="1">
         <v>22</v>
@@ -2821,7 +2828,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B113" s="1">
         <v>23</v>
@@ -2835,7 +2842,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B114" s="1">
         <v>23</v>
@@ -2849,7 +2856,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B115" s="1">
         <v>23</v>
@@ -2863,7 +2870,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B116" s="1">
         <v>23</v>
@@ -2891,7 +2898,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B118" s="1">
         <v>24</v>
@@ -2905,7 +2912,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B119" s="1">
         <v>24</v>
@@ -2919,7 +2926,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B120" s="1">
         <v>24</v>
@@ -2933,7 +2940,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B121" s="1">
         <v>24</v>
@@ -2958,7 +2965,7 @@
   <dimension ref="A1:D433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2968,16 +2975,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2985,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>11.3480986942812</v>
@@ -2996,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>12.3328108609381</v>
@@ -3007,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>10.3633865286252</v>
@@ -3018,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>19.5333496866613</v>
@@ -3029,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>18.9798932094944</v>
@@ -3040,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>20.0873065765562</v>
@@ -3051,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>23.0417433226623</v>
@@ -3062,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>1.38938499487357</v>
@@ -3073,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>-0.412100825922829</v>
@@ -3084,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>0.740349686658866</v>
@@ -3095,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>46.674735227871</v>
@@ -3106,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <v>3.25642488303783</v>
@@ -3117,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>3.04925401364625</v>
@@ -3128,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>2.75300967867084</v>
@@ -3139,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
         <v>11.3480986942812</v>
@@ -3150,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>19.5333496866613</v>
@@ -3161,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>0.740349686658866</v>
@@ -3172,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
         <v>3.25642488303783</v>
@@ -3183,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1">
         <v>11.3480986942812</v>
@@ -3194,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1">
         <v>12.3328108609381</v>
@@ -3205,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1">
         <v>10.3633865286252</v>
@@ -3216,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
         <v>19.5333496866613</v>
@@ -3227,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
         <v>18.9798932094944</v>
@@ -3238,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
         <v>20.0873065765562</v>
@@ -3249,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
         <v>23.0417433226623</v>
@@ -3260,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
         <v>1.38938499487357</v>
@@ -3271,7 +3278,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>-0.412100825922829</v>
@@ -3282,7 +3289,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
         <v>0.740349686658866</v>
@@ -3293,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1">
         <v>46.674735227871</v>
@@ -3304,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1">
         <v>3.25642488303783</v>
@@ -3315,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1">
         <v>3.04925401364625</v>
@@ -3326,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1">
         <v>2.75300967867084</v>
@@ -3337,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1">
         <v>11.3480986942812</v>
@@ -3348,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1">
         <v>19.5333496866613</v>
@@ -3359,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
         <v>0.740349686658866</v>
@@ -3370,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
         <v>3.25642488303783</v>
@@ -3381,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1">
         <v>11.3480986942812</v>
@@ -3392,7 +3399,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1">
         <v>12.3328108609381</v>
@@ -3403,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1">
         <v>10.3633865286252</v>
@@ -3414,7 +3421,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1">
         <v>19.5333496866613</v>
@@ -3425,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1">
         <v>18.9798932094944</v>
@@ -3436,7 +3443,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1">
         <v>20.0873065765562</v>
@@ -3447,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C44" s="1">
         <v>23.0417433226623</v>
@@ -3458,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45" s="1">
         <v>1.38938499487357</v>
@@ -3469,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C46" s="1">
         <v>-0.412100825922829</v>
@@ -3480,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" s="1">
         <v>0.740349686658866</v>
@@ -3491,7 +3498,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1">
         <v>46.674735227871</v>
@@ -3502,7 +3509,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1">
         <v>3.25642488303783</v>
@@ -3513,7 +3520,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C50" s="1">
         <v>3.04925401364625</v>
@@ -3524,7 +3531,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C51" s="1">
         <v>2.75300967867084</v>
@@ -3535,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1">
         <v>11.3480986942812</v>
@@ -3546,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1">
         <v>19.5333496866613</v>
@@ -3557,7 +3564,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1">
         <v>0.740349686658866</v>
@@ -3568,7 +3575,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C55" s="1">
         <v>3.25642488303783</v>
@@ -3579,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" s="1">
         <v>11.3480986942812</v>
@@ -3590,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1">
         <v>12.3328108609381</v>
@@ -3601,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C58" s="1">
         <v>10.3633865286252</v>
@@ -3612,7 +3619,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C59" s="1">
         <v>19.5333496866613</v>
@@ -3623,7 +3630,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60" s="1">
         <v>18.9798932094944</v>
@@ -3634,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1">
         <v>20.0873065765562</v>
@@ -3645,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1">
         <v>23.0417433226623</v>
@@ -3656,7 +3663,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C63" s="1">
         <v>1.38938499487357</v>
@@ -3667,7 +3674,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C64" s="1">
         <v>-0.412100825922829</v>
@@ -3678,7 +3685,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C65" s="1">
         <v>0.740349686658866</v>
@@ -3689,7 +3696,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C66" s="1">
         <v>46.674735227871</v>
@@ -3700,7 +3707,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1">
         <v>3.25642488303783</v>
@@ -3711,7 +3718,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C68" s="1">
         <v>3.04925401364625</v>
@@ -3722,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C69" s="1">
         <v>2.75300967867084</v>
@@ -3733,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70" s="1">
         <v>11.3480986942812</v>
@@ -3744,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C71" s="1">
         <v>19.5333496866613</v>
@@ -3755,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C72" s="1">
         <v>0.740349686658866</v>
@@ -3766,7 +3773,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C73" s="1">
         <v>3.25642488303783</v>
@@ -3777,7 +3784,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" s="1">
         <v>11.3480986942812</v>
@@ -3788,7 +3795,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C75" s="1">
         <v>12.3328108609381</v>
@@ -3799,7 +3806,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76" s="1">
         <v>10.3633865286252</v>
@@ -3810,7 +3817,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C77" s="1">
         <v>19.5333496866613</v>
@@ -3821,7 +3828,7 @@
         <v>5</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C78" s="1">
         <v>18.9798932094944</v>
@@ -3832,7 +3839,7 @@
         <v>5</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C79" s="1">
         <v>20.0873065765562</v>
@@ -3843,7 +3850,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C80" s="1">
         <v>23.0417433226623</v>
@@ -3854,7 +3861,7 @@
         <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C81" s="1">
         <v>1.38938499487357</v>
@@ -3865,7 +3872,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C82" s="1">
         <v>-0.412100825922829</v>
@@ -3876,7 +3883,7 @@
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C83" s="1">
         <v>0.740349686658866</v>
@@ -3887,7 +3894,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C84" s="1">
         <v>46.674735227871</v>
@@ -3898,7 +3905,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C85" s="1">
         <v>3.25642488303783</v>
@@ -3909,7 +3916,7 @@
         <v>5</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C86" s="1">
         <v>3.04925401364625</v>
@@ -3920,7 +3927,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C87" s="1">
         <v>2.75300967867084</v>
@@ -3931,7 +3938,7 @@
         <v>5</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C88" s="1">
         <v>11.3480986942812</v>
@@ -3942,7 +3949,7 @@
         <v>5</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C89" s="1">
         <v>19.5333496866613</v>
@@ -3953,7 +3960,7 @@
         <v>5</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C90" s="1">
         <v>0.740349686658866</v>
@@ -3964,7 +3971,7 @@
         <v>5</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91" s="1">
         <v>3.25642488303783</v>
@@ -3975,7 +3982,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C92" s="1">
         <v>11.3480986942812</v>
@@ -3986,7 +3993,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C93" s="1">
         <v>12.3328108609381</v>
@@ -3997,7 +4004,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C94" s="1">
         <v>10.3633865286252</v>
@@ -4008,7 +4015,7 @@
         <v>6</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C95" s="1">
         <v>19.5333496866613</v>
@@ -4019,7 +4026,7 @@
         <v>6</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C96" s="1">
         <v>18.9798932094944</v>
@@ -4030,7 +4037,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C97" s="1">
         <v>20.0873065765562</v>
@@ -4041,7 +4048,7 @@
         <v>6</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C98" s="1">
         <v>23.0417433226623</v>
@@ -4052,7 +4059,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99" s="1">
         <v>1.38938499487357</v>
@@ -4063,7 +4070,7 @@
         <v>6</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C100" s="1">
         <v>-0.412100825922829</v>
@@ -4074,7 +4081,7 @@
         <v>6</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C101" s="1">
         <v>0.740349686658866</v>
@@ -4085,7 +4092,7 @@
         <v>6</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C102" s="1">
         <v>46.674735227871</v>
@@ -4096,7 +4103,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C103" s="1">
         <v>3.25642488303783</v>
@@ -4107,7 +4114,7 @@
         <v>6</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C104" s="1">
         <v>3.04925401364625</v>
@@ -4118,7 +4125,7 @@
         <v>6</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C105" s="1">
         <v>2.75300967867084</v>
@@ -4129,7 +4136,7 @@
         <v>6</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C106" s="1">
         <v>11.3480986942812</v>
@@ -4140,7 +4147,7 @@
         <v>6</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C107" s="1">
         <v>19.5333496866613</v>
@@ -4151,7 +4158,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C108" s="1">
         <v>0.740349686658866</v>
@@ -4162,7 +4169,7 @@
         <v>6</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C109" s="1">
         <v>3.25642488303783</v>
@@ -4173,7 +4180,7 @@
         <v>7</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C110" s="1">
         <v>11.3502490076147</v>
@@ -4184,7 +4191,7 @@
         <v>7</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C111" s="1">
         <v>12.3349611742715</v>
@@ -4195,7 +4202,7 @@
         <v>7</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C112" s="1">
         <v>10.3655368419587</v>
@@ -4206,7 +4213,7 @@
         <v>7</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C113" s="1">
         <v>19.5354999999948</v>
@@ -4217,7 +4224,7 @@
         <v>7</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C114" s="1">
         <v>18.9820435228279</v>
@@ -4228,7 +4235,7 @@
         <v>7</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C115" s="1">
         <v>20.0894568898896</v>
@@ -4239,7 +4246,7 @@
         <v>7</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C116" s="1">
         <v>23.0438936359957</v>
@@ -4250,7 +4257,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C117" s="1">
         <v>1.39153530820706</v>
@@ -4261,7 +4268,7 @@
         <v>7</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C118" s="1">
         <v>-0.409950512589335</v>
@@ -4272,7 +4279,7 @@
         <v>7</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C119" s="1">
         <v>0.74249999999236</v>
@@ -4283,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C120" s="1">
         <v>46.6768855412045</v>
@@ -4294,7 +4301,7 @@
         <v>7</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C121" s="1">
         <v>3.25857519637133</v>
@@ -4305,7 +4312,7 @@
         <v>7</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C122" s="1">
         <v>3.05140432697974</v>
@@ -4316,7 +4323,7 @@
         <v>7</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C123" s="1">
         <v>2.75515999200433</v>
@@ -4327,7 +4334,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C124" s="1">
         <v>11.3502490076147</v>
@@ -4338,7 +4345,7 @@
         <v>7</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C125" s="1">
         <v>19.5354999999948</v>
@@ -4349,7 +4356,7 @@
         <v>7</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C126" s="1">
         <v>0.74249999999236</v>
@@ -4360,7 +4367,7 @@
         <v>7</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C127" s="1">
         <v>1.74249999999617</v>
@@ -4371,7 +4378,7 @@
         <v>8</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C128" s="1">
         <v>11.346082340968</v>
@@ -4382,7 +4389,7 @@
         <v>8</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C129" s="1">
         <v>12.3307945076249</v>
@@ -4393,7 +4400,7 @@
         <v>8</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C130" s="1">
         <v>10.361370175312</v>
@@ -4404,7 +4411,7 @@
         <v>8</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C131" s="1">
         <v>19.5313333333481</v>
@@ -4415,7 +4422,7 @@
         <v>8</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C132" s="1">
         <v>18.9778768561812</v>
@@ -4426,7 +4433,7 @@
         <v>8</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C133" s="1">
         <v>20.085290223243</v>
@@ -4437,7 +4444,7 @@
         <v>8</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C134" s="1">
         <v>23.0397269693491</v>
@@ -4448,7 +4455,7 @@
         <v>8</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C135" s="1">
         <v>1.38736864156039</v>
@@ -4459,7 +4466,7 @@
         <v>8</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C136" s="1">
         <v>-0.414117179236001</v>
@@ -4470,7 +4477,7 @@
         <v>8</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C137" s="1">
         <v>0.738333333345694</v>
@@ -4481,7 +4488,7 @@
         <v>8</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C138" s="1">
         <v>46.6727188745579</v>
@@ -4492,7 +4499,7 @@
         <v>8</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C139" s="1">
         <v>3.25440852972466</v>
@@ -4503,7 +4510,7 @@
         <v>8</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C140" s="1">
         <v>3.04723766033308</v>
@@ -4514,7 +4521,7 @@
         <v>8</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C141" s="1">
         <v>2.75099332535767</v>
@@ -4525,7 +4532,7 @@
         <v>8</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C142" s="1">
         <v>11.346082340968</v>
@@ -4536,7 +4543,7 @@
         <v>8</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C143" s="1">
         <v>19.5313333333481</v>
@@ -4547,7 +4554,7 @@
         <v>8</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C144" s="1">
         <v>0.738333333345694</v>
@@ -4558,7 +4565,7 @@
         <v>8</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C145" s="1">
         <v>-0.261666666650493</v>
@@ -4569,7 +4576,7 @@
         <v>9</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C146" s="1">
         <v>11.7774635374367</v>
@@ -4580,7 +4587,7 @@
         <v>9</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C147" s="1">
         <v>12.7097778875302</v>
@@ -4591,7 +4598,7 @@
         <v>9</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C148" s="1">
         <v>10.8451491882907</v>
@@ -4602,7 +4609,7 @@
         <v>9</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C149" s="1">
         <v>19.527166666648</v>
@@ -4613,7 +4620,7 @@
         <v>9</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C150" s="1">
         <v>19.0031603292766</v>
@@ -4624,7 +4631,7 @@
         <v>9</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C151" s="1">
         <v>20.0516467891345</v>
@@ -4635,7 +4642,7 @@
         <v>9</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C152" s="1">
         <v>22.8488741090628</v>
@@ -4646,7 +4653,7 @@
         <v>9</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C153" s="1">
         <v>2.34866596103172</v>
@@ -4657,7 +4664,7 @@
         <v>9</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C154" s="1">
         <v>0.643039546441326</v>
@@ -4668,7 +4675,7 @@
         <v>9</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C155" s="1">
         <v>1.73416666666401</v>
@@ -4679,7 +4686,7 @@
         <v>9</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C156" s="1">
         <v>45.224323742913</v>
@@ -4690,7 +4697,7 @@
         <v>9</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C157" s="1">
         <v>4.11635822570861</v>
@@ -4701,7 +4708,7 @@
         <v>9</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C158" s="1">
         <v>3.92021118803071</v>
@@ -4712,7 +4719,7 @@
         <v>9</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C159" s="1">
         <v>3.63973039985362</v>
@@ -4723,7 +4730,7 @@
         <v>9</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C160" s="1">
         <v>11.7774635374367</v>
@@ -4734,7 +4741,7 @@
         <v>9</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C161" s="1">
         <v>19.527166666648</v>
@@ -4745,7 +4752,7 @@
         <v>9</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C162" s="1">
         <v>1.73416666666401</v>
@@ -4756,7 +4763,7 @@
         <v>9</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C163" s="1">
         <v>-0.265833333335211</v>
@@ -4767,7 +4774,7 @@
         <v>10</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C164" s="1">
         <v>11.7774635374367</v>
@@ -4778,7 +4785,7 @@
         <v>10</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C165" s="1">
         <v>12.7097778875302</v>
@@ -4789,7 +4796,7 @@
         <v>10</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C166" s="1">
         <v>10.8451491882907</v>
@@ -4800,7 +4807,7 @@
         <v>10</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C167" s="1">
         <v>19.527166666648</v>
@@ -4811,7 +4818,7 @@
         <v>10</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C168" s="1">
         <v>19.0031603292766</v>
@@ -4822,7 +4829,7 @@
         <v>10</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C169" s="1">
         <v>20.0516467891345</v>
@@ -4833,7 +4840,7 @@
         <v>10</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C170" s="1">
         <v>22.8488741090628</v>
@@ -4844,7 +4851,7 @@
         <v>10</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C171" s="1">
         <v>2.34866596103172</v>
@@ -4855,7 +4862,7 @@
         <v>10</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C172" s="1">
         <v>0.643039546441326</v>
@@ -4866,7 +4873,7 @@
         <v>10</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C173" s="1">
         <v>1.73416666666401</v>
@@ -4877,7 +4884,7 @@
         <v>10</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C174" s="1">
         <v>45.224323742913</v>
@@ -4888,7 +4895,7 @@
         <v>10</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C175" s="1">
         <v>4.11635822570861</v>
@@ -4899,7 +4906,7 @@
         <v>10</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C176" s="1">
         <v>3.92021118803071</v>
@@ -4910,7 +4917,7 @@
         <v>10</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C177" s="1">
         <v>3.63973039985362</v>
@@ -4921,7 +4928,7 @@
         <v>10</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C178" s="1">
         <v>11.7774635374367</v>
@@ -4932,7 +4939,7 @@
         <v>10</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C179" s="1">
         <v>19.527166666648</v>
@@ -4943,7 +4950,7 @@
         <v>10</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C180" s="1">
         <v>1.73416666666401</v>
@@ -4954,7 +4961,7 @@
         <v>10</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C181" s="1">
         <v>-0.265833333335211</v>
@@ -4965,7 +4972,7 @@
         <v>11</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C182" s="1">
         <v>11.7566302041033</v>
@@ -4976,7 +4983,7 @@
         <v>11</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C183" s="1">
         <v>12.6889445541968</v>
@@ -4987,7 +4994,7 @@
         <v>11</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C184" s="1">
         <v>10.8243158549574</v>
@@ -4998,7 +5005,7 @@
         <v>11</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C185" s="1">
         <v>19.5063333333147</v>
@@ -5009,7 +5016,7 @@
         <v>11</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C186" s="1">
         <v>18.9823269959433</v>
@@ -5020,7 +5027,7 @@
         <v>11</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C187" s="1">
         <v>20.0308134558012</v>
@@ -5031,7 +5038,7 @@
         <v>11</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C188" s="1">
         <v>22.8280407757295</v>
@@ -5042,7 +5049,7 @@
         <v>11</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C189" s="1">
         <v>2.32783262769839</v>
@@ -5053,7 +5060,7 @@
         <v>11</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C190" s="1">
         <v>0.622206213107993</v>
@@ -5064,7 +5071,7 @@
         <v>11</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C191" s="1">
         <v>1.71333333333068</v>
@@ -5075,7 +5082,7 @@
         <v>11</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C192" s="1">
         <v>45.2034904095797</v>
@@ -5086,7 +5093,7 @@
         <v>11</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C193" s="1">
         <v>4.09552489237527</v>
@@ -5097,7 +5104,7 @@
         <v>11</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C194" s="1">
         <v>3.89937785469738</v>
@@ -5108,7 +5115,7 @@
         <v>11</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C195" s="1">
         <v>3.61889706652029</v>
@@ -5119,7 +5126,7 @@
         <v>11</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C196" s="1">
         <v>11.7566302041033</v>
@@ -5130,7 +5137,7 @@
         <v>11</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C197" s="1">
         <v>19.5063333333147</v>
@@ -5141,7 +5148,7 @@
         <v>11</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C198" s="1">
         <v>1.71333333333068</v>
@@ -5152,7 +5159,7 @@
         <v>11</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C199" s="1">
         <v>-0.286666666668545</v>
@@ -5163,7 +5170,7 @@
         <v>12</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C200" s="1">
         <v>11.7774635374367</v>
@@ -5174,7 +5181,7 @@
         <v>12</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C201" s="1">
         <v>12.7097778875302</v>
@@ -5185,7 +5192,7 @@
         <v>12</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C202" s="1">
         <v>10.8451491882907</v>
@@ -5196,7 +5203,7 @@
         <v>12</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C203" s="1">
         <v>19.527166666648</v>
@@ -5207,7 +5214,7 @@
         <v>12</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C204" s="1">
         <v>19.0031603292766</v>
@@ -5218,7 +5225,7 @@
         <v>12</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C205" s="1">
         <v>20.0516467891345</v>
@@ -5229,7 +5236,7 @@
         <v>12</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C206" s="1">
         <v>22.8488741090628</v>
@@ -5240,7 +5247,7 @@
         <v>12</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C207" s="1">
         <v>2.34866596103172</v>
@@ -5251,7 +5258,7 @@
         <v>12</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C208" s="1">
         <v>0.643039546441326</v>
@@ -5262,7 +5269,7 @@
         <v>12</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C209" s="1">
         <v>1.73416666666401</v>
@@ -5273,7 +5280,7 @@
         <v>12</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C210" s="1">
         <v>45.224323742913</v>
@@ -5284,7 +5291,7 @@
         <v>12</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C211" s="1">
         <v>4.11635822570861</v>
@@ -5295,7 +5302,7 @@
         <v>12</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C212" s="1">
         <v>3.92021118803071</v>
@@ -5306,7 +5313,7 @@
         <v>12</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C213" s="1">
         <v>3.63973039985362</v>
@@ -5317,7 +5324,7 @@
         <v>12</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C214" s="1">
         <v>11.7774635374367</v>
@@ -5328,7 +5335,7 @@
         <v>12</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C215" s="1">
         <v>19.527166666648</v>
@@ -5339,7 +5346,7 @@
         <v>12</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C216" s="1">
         <v>1.73416666666401</v>
@@ -5350,7 +5357,7 @@
         <v>12</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C217" s="1">
         <v>-0.265833333335211</v>
@@ -5361,7 +5368,7 @@
         <v>13</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C218" s="1">
         <v>11.7774635374367</v>
@@ -5372,7 +5379,7 @@
         <v>13</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C219" s="1">
         <v>12.7097778875302</v>
@@ -5383,7 +5390,7 @@
         <v>13</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C220" s="1">
         <v>10.8451491882907</v>
@@ -5394,7 +5401,7 @@
         <v>13</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C221" s="1">
         <v>19.527166666648</v>
@@ -5405,7 +5412,7 @@
         <v>13</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C222" s="1">
         <v>19.0031603292766</v>
@@ -5416,7 +5423,7 @@
         <v>13</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C223" s="1">
         <v>20.0516467891345</v>
@@ -5427,7 +5434,7 @@
         <v>13</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C224" s="1">
         <v>22.8488741090628</v>
@@ -5438,7 +5445,7 @@
         <v>13</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C225" s="1">
         <v>2.34866596103172</v>
@@ -5449,7 +5456,7 @@
         <v>13</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C226" s="1">
         <v>0.643039546441326</v>
@@ -5460,7 +5467,7 @@
         <v>13</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C227" s="1">
         <v>1.73416666666401</v>
@@ -5471,7 +5478,7 @@
         <v>13</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C228" s="1">
         <v>45.224323742913</v>
@@ -5482,7 +5489,7 @@
         <v>13</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C229" s="1">
         <v>4.11635822570861</v>
@@ -5493,7 +5500,7 @@
         <v>13</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C230" s="1">
         <v>3.92021118803071</v>
@@ -5504,7 +5511,7 @@
         <v>13</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C231" s="1">
         <v>3.63973039985362</v>
@@ -5515,7 +5522,7 @@
         <v>13</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C232" s="1">
         <v>11.7774635374367</v>
@@ -5526,7 +5533,7 @@
         <v>13</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C233" s="1">
         <v>19.527166666648</v>
@@ -5537,7 +5544,7 @@
         <v>13</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C234" s="1">
         <v>1.73416666666401</v>
@@ -5548,7 +5555,7 @@
         <v>13</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C235" s="1">
         <v>-0.265833333335211</v>
@@ -5559,7 +5566,7 @@
         <v>14</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C236" s="1">
         <v>11.7774635374367</v>
@@ -5570,7 +5577,7 @@
         <v>14</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C237" s="1">
         <v>12.7097778875302</v>
@@ -5581,7 +5588,7 @@
         <v>14</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C238" s="1">
         <v>10.8451491882907</v>
@@ -5592,7 +5599,7 @@
         <v>14</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C239" s="1">
         <v>19.527166666648</v>
@@ -5603,7 +5610,7 @@
         <v>14</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C240" s="1">
         <v>19.0031603292766</v>
@@ -5614,7 +5621,7 @@
         <v>14</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C241" s="1">
         <v>20.0516467891345</v>
@@ -5625,7 +5632,7 @@
         <v>14</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C242" s="1">
         <v>22.8488741090628</v>
@@ -5636,7 +5643,7 @@
         <v>14</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C243" s="1">
         <v>2.34866596103172</v>
@@ -5647,7 +5654,7 @@
         <v>14</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C244" s="1">
         <v>0.643039546441326</v>
@@ -5658,7 +5665,7 @@
         <v>14</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C245" s="1">
         <v>1.73416666666401</v>
@@ -5669,7 +5676,7 @@
         <v>14</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C246" s="1">
         <v>45.224323742913</v>
@@ -5680,7 +5687,7 @@
         <v>14</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C247" s="1">
         <v>4.11635822570861</v>
@@ -5691,7 +5698,7 @@
         <v>14</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C248" s="1">
         <v>3.92021118803071</v>
@@ -5702,7 +5709,7 @@
         <v>14</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C249" s="1">
         <v>3.63973039985362</v>
@@ -5713,7 +5720,7 @@
         <v>14</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C250" s="1">
         <v>11.7774635374367</v>
@@ -5724,7 +5731,7 @@
         <v>14</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C251" s="1">
         <v>19.527166666648</v>
@@ -5735,7 +5742,7 @@
         <v>14</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C252" s="1">
         <v>1.73416666666401</v>
@@ -5746,7 +5753,7 @@
         <v>14</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C253" s="1">
         <v>-0.265833333335211</v>
@@ -5757,7 +5764,7 @@
         <v>15</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C254" s="1">
         <v>11.346082340968</v>
@@ -5768,7 +5775,7 @@
         <v>15</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C255" s="1">
         <v>12.3307945076249</v>
@@ -5779,7 +5786,7 @@
         <v>15</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C256" s="1">
         <v>10.361370175312</v>
@@ -5790,7 +5797,7 @@
         <v>15</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C257" s="1">
         <v>19.5313333333481</v>
@@ -5801,7 +5808,7 @@
         <v>15</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C258" s="1">
         <v>18.9778768561812</v>
@@ -5812,7 +5819,7 @@
         <v>15</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C259" s="1">
         <v>20.085290223243</v>
@@ -5823,7 +5830,7 @@
         <v>15</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C260" s="1">
         <v>23.0397269693491</v>
@@ -5834,7 +5841,7 @@
         <v>15</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C261" s="1">
         <v>1.38736864156039</v>
@@ -5845,7 +5852,7 @@
         <v>15</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C262" s="1">
         <v>-0.414117179236001</v>
@@ -5856,7 +5863,7 @@
         <v>15</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C263" s="1">
         <v>0.738333333345694</v>
@@ -5867,7 +5874,7 @@
         <v>15</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C264" s="1">
         <v>46.6727188745579</v>
@@ -5878,7 +5885,7 @@
         <v>15</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C265" s="1">
         <v>3.25440852972466</v>
@@ -5889,7 +5896,7 @@
         <v>15</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C266" s="1">
         <v>3.04723766033308</v>
@@ -5900,7 +5907,7 @@
         <v>15</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C267" s="1">
         <v>2.75099332535767</v>
@@ -5911,7 +5918,7 @@
         <v>15</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C268" s="1">
         <v>11.346082340968</v>
@@ -5922,7 +5929,7 @@
         <v>15</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C269" s="1">
         <v>19.5313333333481</v>
@@ -5933,7 +5940,7 @@
         <v>15</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C270" s="1">
         <v>0.738333333345694</v>
@@ -5944,7 +5951,7 @@
         <v>15</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C271" s="1">
         <v>-0.261666666650493</v>
@@ -5955,7 +5962,7 @@
         <v>16</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C272" s="1">
         <v>11.346082340968</v>
@@ -5966,7 +5973,7 @@
         <v>16</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C273" s="1">
         <v>12.3307945076249</v>
@@ -5977,7 +5984,7 @@
         <v>16</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C274" s="1">
         <v>10.361370175312</v>
@@ -5988,7 +5995,7 @@
         <v>16</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C275" s="1">
         <v>19.5313333333481</v>
@@ -5999,7 +6006,7 @@
         <v>16</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C276" s="1">
         <v>18.9778768561812</v>
@@ -6010,7 +6017,7 @@
         <v>16</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C277" s="1">
         <v>20.085290223243</v>
@@ -6021,7 +6028,7 @@
         <v>16</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C278" s="1">
         <v>23.0397269693491</v>
@@ -6032,7 +6039,7 @@
         <v>16</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C279" s="1">
         <v>1.38736864156039</v>
@@ -6043,7 +6050,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C280" s="1">
         <v>-0.414117179236001</v>
@@ -6054,7 +6061,7 @@
         <v>16</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C281" s="1">
         <v>0.738333333345694</v>
@@ -6065,7 +6072,7 @@
         <v>16</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C282" s="1">
         <v>46.6727188745579</v>
@@ -6076,7 +6083,7 @@
         <v>16</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C283" s="1">
         <v>3.25440852972466</v>
@@ -6087,7 +6094,7 @@
         <v>16</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C284" s="1">
         <v>3.04723766033308</v>
@@ -6098,7 +6105,7 @@
         <v>16</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C285" s="1">
         <v>2.75099332535767</v>
@@ -6109,7 +6116,7 @@
         <v>16</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C286" s="1">
         <v>11.346082340968</v>
@@ -6120,7 +6127,7 @@
         <v>16</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C287" s="1">
         <v>19.5313333333481</v>
@@ -6131,7 +6138,7 @@
         <v>16</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C288" s="1">
         <v>0.738333333345694</v>
@@ -6142,7 +6149,7 @@
         <v>16</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C289" s="1">
         <v>-0.261666666650493</v>
@@ -6153,7 +6160,7 @@
         <v>17</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C290" s="1">
         <v>11.7774635374367</v>
@@ -6164,7 +6171,7 @@
         <v>17</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C291" s="1">
         <v>12.7097778875302</v>
@@ -6175,7 +6182,7 @@
         <v>17</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C292" s="1">
         <v>10.8451491882907</v>
@@ -6186,7 +6193,7 @@
         <v>17</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C293" s="1">
         <v>19.527166666648</v>
@@ -6197,7 +6204,7 @@
         <v>17</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C294" s="1">
         <v>19.0031603292766</v>
@@ -6208,7 +6215,7 @@
         <v>17</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C295" s="1">
         <v>20.0516467891345</v>
@@ -6219,7 +6226,7 @@
         <v>17</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C296" s="1">
         <v>22.8488741090628</v>
@@ -6230,7 +6237,7 @@
         <v>17</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C297" s="1">
         <v>2.34866596103172</v>
@@ -6241,7 +6248,7 @@
         <v>17</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C298" s="1">
         <v>0.643039546441326</v>
@@ -6252,7 +6259,7 @@
         <v>17</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C299" s="1">
         <v>1.73416666666401</v>
@@ -6263,7 +6270,7 @@
         <v>17</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C300" s="1">
         <v>45.224323742913</v>
@@ -6274,7 +6281,7 @@
         <v>17</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C301" s="1">
         <v>4.11635822570861</v>
@@ -6285,7 +6292,7 @@
         <v>17</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C302" s="1">
         <v>3.92021118803071</v>
@@ -6296,7 +6303,7 @@
         <v>17</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C303" s="1">
         <v>3.63973039985362</v>
@@ -6307,7 +6314,7 @@
         <v>17</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C304" s="1">
         <v>11.7774635374367</v>
@@ -6318,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C305" s="1">
         <v>19.527166666648</v>
@@ -6329,7 +6336,7 @@
         <v>17</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C306" s="1">
         <v>1.73416666666401</v>
@@ -6340,7 +6347,7 @@
         <v>17</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C307" s="1">
         <v>-0.265833333335211</v>
@@ -6351,7 +6358,7 @@
         <v>18</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C308" s="1">
         <v>17.8573333332976</v>
@@ -6362,7 +6369,7 @@
         <v>18</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C309" s="1">
         <v>18.0557133663999</v>
@@ -6373,7 +6380,7 @@
         <v>18</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C310" s="1">
         <v>17.658953300397</v>
@@ -6384,7 +6391,7 @@
         <v>18</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C311" s="1">
         <v>19.5063333332993</v>
@@ -6395,7 +6402,7 @@
         <v>18</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C312" s="1">
         <v>19.394834036369</v>
@@ -6406,7 +6413,7 @@
         <v>18</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C313" s="1">
         <v>19.6179334433373</v>
@@ -6417,7 +6424,7 @@
         <v>18</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C314" s="1">
         <v>20.2131340302062</v>
@@ -6428,7 +6435,7 @@
         <v>18</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C315" s="1">
         <v>15.8510516804041</v>
@@ -6439,7 +6446,7 @@
         <v>18</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C316" s="1">
         <v>15.4881244932889</v>
@@ -6450,7 +6457,7 @@
         <v>18</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C317" s="1">
         <v>15.7202970799351</v>
@@ -6461,7 +6468,7 @@
         <v>18</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C318" s="1">
         <v>24.97423465962</v>
@@ -6472,7 +6479,7 @@
         <v>18</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C319" s="1">
         <v>16.227185384606</v>
@@ -6483,7 +6490,7 @@
         <v>18</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C320" s="1">
         <v>16.1854487580877</v>
@@ -6494,7 +6501,7 @@
         <v>18</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C321" s="1">
         <v>16.1257673984288</v>
@@ -6505,7 +6512,7 @@
         <v>18</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C322" s="1">
         <v>17.8573333332976</v>
@@ -6516,7 +6523,7 @@
         <v>18</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C323" s="1">
         <v>19.5063333332993</v>
@@ -6527,7 +6534,7 @@
         <v>18</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C324" s="1">
         <v>15.7202970799351</v>
@@ -6538,7 +6545,7 @@
         <v>18</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C325" s="1">
         <v>-0.286666666659108</v>
@@ -6549,7 +6556,7 @@
         <v>19</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C326" s="1">
         <v>17.80313765108</v>
@@ -6560,7 +6567,7 @@
         <v>19</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C327" s="1">
         <v>18.0015176841823</v>
@@ -6571,7 +6578,7 @@
         <v>19</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C328" s="1">
         <v>17.6047576181794</v>
@@ -6582,7 +6589,7 @@
         <v>19</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C329" s="1">
         <v>19.4521376510818</v>
@@ -6593,7 +6600,7 @@
         <v>19</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C330" s="1">
         <v>19.3406383541514</v>
@@ -6604,7 +6611,7 @@
         <v>19</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C331" s="1">
         <v>19.5637377611197</v>
@@ -6615,7 +6622,7 @@
         <v>19</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C332" s="1">
         <v>20.1589383479886</v>
@@ -6626,7 +6633,7 @@
         <v>19</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C333" s="1">
         <v>15.7968559981865</v>
@@ -6637,7 +6644,7 @@
         <v>19</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C334" s="1">
         <v>15.4339288110713</v>
@@ -6648,7 +6655,7 @@
         <v>19</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C335" s="1">
         <v>15.6661013977175</v>
@@ -6659,7 +6666,7 @@
         <v>19</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C336" s="1">
         <v>24.9200389774024</v>
@@ -6670,7 +6677,7 @@
         <v>19</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C337" s="1">
         <v>16.1729897023884</v>
@@ -6681,7 +6688,7 @@
         <v>19</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C338" s="1">
         <v>16.1312530758702</v>
@@ -6692,7 +6699,7 @@
         <v>19</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C339" s="1">
         <v>16.0715717162112</v>
@@ -6703,7 +6710,7 @@
         <v>19</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C340" s="1">
         <v>17.80313765108</v>
@@ -6714,7 +6721,7 @@
         <v>19</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C341" s="1">
         <v>19.4521376510818</v>
@@ -6725,7 +6732,7 @@
         <v>19</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C342" s="1">
         <v>15.6661013977175</v>
@@ -6736,7 +6743,7 @@
         <v>19</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C343" s="1">
         <v>13.6661013977133</v>
@@ -6747,7 +6754,7 @@
         <v>20</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C344" s="1">
         <v>19.4115458333333</v>
@@ -6758,7 +6765,7 @@
         <v>20</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C345" s="1">
         <v>19.4115458333333</v>
@@ -6769,7 +6776,7 @@
         <v>20</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C346" s="1">
         <v>19.4115458333333</v>
@@ -6780,7 +6787,7 @@
         <v>20</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C347" s="1">
         <v>19.4115458333333</v>
@@ -6791,7 +6798,7 @@
         <v>20</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C348" s="1">
         <v>19.4115458333333</v>
@@ -6802,7 +6809,7 @@
         <v>20</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C349" s="1">
         <v>19.4115458333333</v>
@@ -6813,7 +6820,7 @@
         <v>20</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C350" s="1">
         <v>19.4115458333333</v>
@@ -6824,7 +6831,7 @@
         <v>20</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C351" s="1">
         <v>19.4115458333333</v>
@@ -6835,7 +6842,7 @@
         <v>20</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C352" s="1">
         <v>19.4115458333333</v>
@@ -6846,7 +6853,7 @@
         <v>20</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C353" s="1">
         <v>19.4115458333333</v>
@@ -6857,7 +6864,7 @@
         <v>20</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C354" s="1">
         <v>19.4115458333333</v>
@@ -6868,7 +6875,7 @@
         <v>20</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C355" s="1">
         <v>19.4115458333333</v>
@@ -6879,7 +6886,7 @@
         <v>20</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C356" s="1">
         <v>19.4115458333333</v>
@@ -6890,7 +6897,7 @@
         <v>20</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C357" s="1">
         <v>19.4115458333333</v>
@@ -6901,7 +6908,7 @@
         <v>20</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C358" s="1">
         <v>19.4115458333333</v>
@@ -6912,7 +6919,7 @@
         <v>20</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C359" s="1">
         <v>19.4115458333333</v>
@@ -6923,7 +6930,7 @@
         <v>20</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C360" s="1">
         <v>19.4115458333333</v>
@@ -6934,7 +6941,7 @@
         <v>20</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C361" s="1">
         <v>19.4115458333333</v>
@@ -6945,7 +6952,7 @@
         <v>21</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C362" s="1">
         <v>19.4115458333333</v>
@@ -6956,7 +6963,7 @@
         <v>21</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C363" s="1">
         <v>19.4115458333333</v>
@@ -6967,7 +6974,7 @@
         <v>21</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C364" s="1">
         <v>19.4115458333333</v>
@@ -6978,7 +6985,7 @@
         <v>21</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C365" s="1">
         <v>19.4115458333333</v>
@@ -6989,7 +6996,7 @@
         <v>21</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C366" s="1">
         <v>19.4115458333333</v>
@@ -7000,7 +7007,7 @@
         <v>21</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C367" s="1">
         <v>19.4115458333333</v>
@@ -7011,7 +7018,7 @@
         <v>21</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C368" s="1">
         <v>19.4115458333333</v>
@@ -7022,7 +7029,7 @@
         <v>21</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C369" s="1">
         <v>19.4115458333333</v>
@@ -7033,7 +7040,7 @@
         <v>21</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C370" s="1">
         <v>19.4115458333333</v>
@@ -7044,7 +7051,7 @@
         <v>21</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C371" s="1">
         <v>19.4115458333333</v>
@@ -7055,7 +7062,7 @@
         <v>21</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C372" s="1">
         <v>19.4115458333333</v>
@@ -7066,7 +7073,7 @@
         <v>21</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C373" s="1">
         <v>19.4115458333333</v>
@@ -7077,7 +7084,7 @@
         <v>21</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C374" s="1">
         <v>19.4115458333333</v>
@@ -7088,7 +7095,7 @@
         <v>21</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C375" s="1">
         <v>19.4115458333333</v>
@@ -7099,7 +7106,7 @@
         <v>21</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C376" s="1">
         <v>19.4115458333333</v>
@@ -7110,7 +7117,7 @@
         <v>21</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C377" s="1">
         <v>19.4115458333333</v>
@@ -7121,7 +7128,7 @@
         <v>21</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C378" s="1">
         <v>19.4115458333333</v>
@@ -7132,7 +7139,7 @@
         <v>21</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C379" s="1">
         <v>19.4115458333333</v>
@@ -7143,7 +7150,7 @@
         <v>22</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C380" s="1">
         <v>19.4363624999999</v>
@@ -7154,7 +7161,7 @@
         <v>22</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C381" s="1">
         <v>19.4363624999999</v>
@@ -7165,7 +7172,7 @@
         <v>22</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C382" s="1">
         <v>19.4363624999999</v>
@@ -7176,7 +7183,7 @@
         <v>22</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C383" s="1">
         <v>19.4363624999999</v>
@@ -7187,7 +7194,7 @@
         <v>22</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C384" s="1">
         <v>19.4363624999999</v>
@@ -7198,7 +7205,7 @@
         <v>22</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C385" s="1">
         <v>19.4363624999999</v>
@@ -7209,7 +7216,7 @@
         <v>22</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C386" s="1">
         <v>19.4363624999999</v>
@@ -7220,7 +7227,7 @@
         <v>22</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C387" s="1">
         <v>19.4363624999999</v>
@@ -7231,7 +7238,7 @@
         <v>22</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C388" s="1">
         <v>19.4363624999999</v>
@@ -7242,7 +7249,7 @@
         <v>22</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C389" s="1">
         <v>19.4363624999999</v>
@@ -7253,7 +7260,7 @@
         <v>22</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C390" s="1">
         <v>19.4363624999999</v>
@@ -7264,7 +7271,7 @@
         <v>22</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C391" s="1">
         <v>19.4363624999999</v>
@@ -7275,7 +7282,7 @@
         <v>22</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C392" s="1">
         <v>19.4363624999999</v>
@@ -7286,7 +7293,7 @@
         <v>22</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C393" s="1">
         <v>19.4363624999999</v>
@@ -7297,7 +7304,7 @@
         <v>22</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C394" s="1">
         <v>19.4363624999999</v>
@@ -7308,7 +7315,7 @@
         <v>22</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C395" s="1">
         <v>19.4363624999999</v>
@@ -7319,7 +7326,7 @@
         <v>22</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C396" s="1">
         <v>19.4363624999999</v>
@@ -7330,7 +7337,7 @@
         <v>22</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C397" s="1">
         <v>19.4363624999999</v>
@@ -7341,7 +7348,7 @@
         <v>23</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C398" s="1">
         <v>17.803137651055</v>
@@ -7352,7 +7359,7 @@
         <v>23</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C399" s="1">
         <v>18.0015176841573</v>
@@ -7363,7 +7370,7 @@
         <v>23</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C400" s="1">
         <v>17.6047576181543</v>
@@ -7374,7 +7381,7 @@
         <v>23</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C401" s="1">
         <v>19.4521376510567</v>
@@ -7385,7 +7392,7 @@
         <v>23</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C402" s="1">
         <v>19.3406383541263</v>
@@ -7396,7 +7403,7 @@
         <v>23</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C403" s="1">
         <v>19.5637377610946</v>
@@ -7407,7 +7414,7 @@
         <v>23</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C404" s="1">
         <v>20.1589383479636</v>
@@ -7418,7 +7425,7 @@
         <v>23</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C405" s="1">
         <v>15.7968559981615</v>
@@ -7429,7 +7436,7 @@
         <v>23</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C406" s="1">
         <v>15.4339288110463</v>
@@ -7440,7 +7447,7 @@
         <v>23</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C407" s="1">
         <v>15.6661013976924</v>
@@ -7451,7 +7458,7 @@
         <v>23</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C408" s="1">
         <v>24.9200389773773</v>
@@ -7462,7 +7469,7 @@
         <v>23</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C409" s="1">
         <v>16.1729897023633</v>
@@ -7473,7 +7480,7 @@
         <v>23</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C410" s="1">
         <v>16.1312530758451</v>
@@ -7484,7 +7491,7 @@
         <v>23</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C411" s="1">
         <v>16.0715717161862</v>
@@ -7495,7 +7502,7 @@
         <v>23</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C412" s="1">
         <v>17.803137651055</v>
@@ -7506,7 +7513,7 @@
         <v>23</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C413" s="1">
         <v>19.4521376510567</v>
@@ -7517,7 +7524,7 @@
         <v>23</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C414" s="1">
         <v>15.6661013976924</v>
@@ -7528,7 +7535,7 @@
         <v>23</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C415" s="1">
         <v>16.1729897023633</v>
@@ -7539,7 +7546,7 @@
         <v>24</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C416" s="1">
         <v>11.3480986942812</v>
@@ -7550,7 +7557,7 @@
         <v>24</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C417" s="1">
         <v>12.3328108609381</v>
@@ -7561,7 +7568,7 @@
         <v>24</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C418" s="1">
         <v>10.3633865286252</v>
@@ -7572,7 +7579,7 @@
         <v>24</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C419" s="1">
         <v>19.5333496866613</v>
@@ -7583,7 +7590,7 @@
         <v>24</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C420" s="1">
         <v>18.9798932094944</v>
@@ -7594,7 +7601,7 @@
         <v>24</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C421" s="1">
         <v>20.0873065765562</v>
@@ -7605,7 +7612,7 @@
         <v>24</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C422" s="1">
         <v>23.0417433226623</v>
@@ -7616,7 +7623,7 @@
         <v>24</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C423" s="1">
         <v>1.38938499487357</v>
@@ -7627,7 +7634,7 @@
         <v>24</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C424" s="1">
         <v>-0.412100825922829</v>
@@ -7638,7 +7645,7 @@
         <v>24</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C425" s="1">
         <v>0.740349686658866</v>
@@ -7649,7 +7656,7 @@
         <v>24</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C426" s="1">
         <v>46.674735227871</v>
@@ -7660,7 +7667,7 @@
         <v>24</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C427" s="1">
         <v>3.25642488303783</v>
@@ -7671,7 +7678,7 @@
         <v>24</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C428" s="1">
         <v>3.04925401364625</v>
@@ -7682,7 +7689,7 @@
         <v>24</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C429" s="1">
         <v>2.75300967867084</v>
@@ -7693,7 +7700,7 @@
         <v>24</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C430" s="1">
         <v>11.3480986942812</v>
@@ -7704,7 +7711,7 @@
         <v>24</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C431" s="1">
         <v>19.5333496866613</v>
@@ -7715,7 +7722,7 @@
         <v>24</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C432" s="1">
         <v>0.740349686658866</v>
@@ -7726,7 +7733,7 @@
         <v>24</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C433" s="1">
         <v>3.25642488303783</v>
